--- a/Files/Template.xlsx
+++ b/Files/Template.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:BO18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8"/>
+      <selection activeCell="A3" sqref="A3:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,40 +830,40 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -1024,40 +1024,40 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
@@ -1206,64 +1206,64 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="2">
         <v>0</v>
@@ -1400,64 +1400,64 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="2">
         <v>0</v>
@@ -1588,76 +1588,76 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="2">
         <v>0</v>
@@ -1782,76 +1782,76 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1988,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2009,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
         <v>0</v>
@@ -2042,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -2164,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2182,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="2">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
         <v>0</v>
@@ -2352,100 +2352,100 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="2">
         <v>1</v>
@@ -2546,100 +2546,100 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2">
         <v>1</v>
@@ -2752,22 +2752,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -2806,22 +2806,22 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -2946,22 +2946,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -3146,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="2">
         <v>0</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="2">
         <v>0</v>
